--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\POWER-CONNECTOR\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0414E19B-2F72-498F-8AC2-EFA767AA064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B73777-C0DD-4F8B-919D-2BD255D7242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3B441423-FD93-4901-9D17-E7CE4BA55193}"/>
+    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{70FAB241-C7D4-4083-8784-7FDA20703262}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Designator</t>
   </si>
@@ -108,13 +108,10 @@
     <t>Molex</t>
   </si>
   <si>
-    <t>502494-0670</t>
+    <t>502585-0670</t>
   </si>
   <si>
     <t>1.50mm Pitch, CLIK-Mate PCB Receptacle, Single Row, Surface Mount, Right-Angle, Tin Plating, Positive Lock, 6 Circuits, Natural</t>
-  </si>
-  <si>
-    <t>502585-0670</t>
   </si>
   <si>
     <t>IN</t>
@@ -503,7 +500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB670C81-EEE8-4D7F-90E0-76F7D456AE37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228B3DFA-8CC2-4F7F-A0A7-CCA0D9EFC423}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -621,25 +618,25 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
@@ -649,7 +646,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -1,43 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\POWER-CONNECTOR\Project Outputs\BOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B73777-C0DD-4F8B-919D-2BD255D7242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{70FAB241-C7D4-4083-8784-7FDA20703262}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
-    <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Bill of Materials-BOM" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-BOM'!$1:$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
   <si>
     <t>Designator</t>
   </si>
@@ -83,14 +56,32 @@
   <si>
     <t>SM04B-GHS-TB_LF__SN_-</t>
   </si>
-  <si>
-    <t/>
-  </si>
+  <si/>
   <si>
     <t>None</t>
   </si>
   <si>
     <t>Connector Header Surface Mount, Right Angle 4 position 0.049 _1.25mm_</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Take it from </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Google Sans"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color rgb="1F1F1F" tint="0"/>
+        <sz val="11"/>
+      </rPr>
+      <t>T-S206W48003R</t>
+    </r>
   </si>
   <si>
     <t>http://www.farnell.com/datasheets/2082975.pdf</t>
@@ -129,14 +120,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+  <numFmts>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1001"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <color theme="1" tint="0"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <color theme="1" tint="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,70 +146,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="D3D3D3" tint="0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="000000" tint="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="000000" tint="0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="000000" tint="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="000000" tint="0"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,108 +234,14 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -356,7 +249,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -380,9 +273,8 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -406,44 +298,52 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw>
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw>
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw>
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -459,7 +359,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -484,173 +384,172 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228B3DFA-8CC2-4F7F-A0A7-CCA0D9EFC423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="15" zeroHeight="false"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" width="21.9999996616676"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" width="11.2851564964804"/>
+    <col customWidth="true" max="3" min="3" outlineLevel="0" width="18.0000003383324"/>
+    <col customWidth="true" max="4" min="4" outlineLevel="0" width="21.285156158148"/>
+    <col customWidth="true" max="5" min="5" outlineLevel="0" width="9.42578129823879"/>
+    <col customWidth="true" max="6" min="6" outlineLevel="0" width="19.570313162127"/>
+    <col customWidth="true" max="7" min="7" outlineLevel="0" width="13.7109379638854"/>
+    <col customWidth="true" hidden="false" max="8" min="8" outlineLevel="0" width="27.3390521652679"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" width="9.71093728722066"/>
+    <col customWidth="true" max="10" min="10" outlineLevel="0" width="11.2851564964804"/>
+    <col customWidth="true" max="11" min="11" outlineLevel="0" width="15.1406249709246"/>
+    <col customWidth="true" max="12" min="12" outlineLevel="0" width="11.710937625553"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row customFormat="true" ht="15" outlineLevel="0" r="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1">
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1">
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
-        <v>27</v>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297mm" paperSize="9" paperWidth="210mm" scale="100"/>
 </worksheet>
 </file>
--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -1,16 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\POWER-CONNECTOR\Project Outputs\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C711BA6E-0A5B-4D7C-BDEF-CC057FCC860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{22140B6C-DBC6-4661-9482-37B5D2A42DC2}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Bill of Materials-BOM" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-BOM'!$1:$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Designator</t>
   </si>
@@ -56,7 +83,9 @@
   <si>
     <t>SM04B-GHS-TB_LF__SN_-</t>
   </si>
-  <si/>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>None</t>
   </si>
@@ -64,24 +93,7 @@
     <t>Connector Header Surface Mount, Right Angle 4 position 0.049 _1.25mm_</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Take it from </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Google Sans"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color rgb="1F1F1F" tint="0"/>
-        <sz val="11"/>
-      </rPr>
-      <t>T-S206W48003R</t>
-    </r>
+    <t>SMD</t>
   </si>
   <si>
     <t>http://www.farnell.com/datasheets/2082975.pdf</t>
@@ -115,25 +127,22 @@
   </si>
   <si>
     <t>Package Analog Devices</t>
+  </si>
+  <si>
+    <t>SMT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
-  <numFmts>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="@" formatCode="@" numFmtId="1001"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1" tint="0"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <color theme="1" tint="0"/>
-      <sz val="11"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,60 +155,70 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000" tint="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="000000" tint="0"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="000000" tint="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000" tint="0"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -234,14 +253,108 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -249,7 +362,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -273,8 +386,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -298,52 +412,44 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw>
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw>
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -359,7 +465,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -384,172 +490,179 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160786AD-265E-4713-84F6-7979EB5B865F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showZeros="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" width="21.9999996616676"/>
-    <col customWidth="true" max="2" min="2" outlineLevel="0" width="11.2851564964804"/>
-    <col customWidth="true" max="3" min="3" outlineLevel="0" width="18.0000003383324"/>
-    <col customWidth="true" max="4" min="4" outlineLevel="0" width="21.285156158148"/>
-    <col customWidth="true" max="5" min="5" outlineLevel="0" width="9.42578129823879"/>
-    <col customWidth="true" max="6" min="6" outlineLevel="0" width="19.570313162127"/>
-    <col customWidth="true" max="7" min="7" outlineLevel="0" width="13.7109379638854"/>
-    <col customWidth="true" hidden="false" max="8" min="8" outlineLevel="0" width="27.3390521652679"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" width="9.71093728722066"/>
-    <col customWidth="true" max="10" min="10" outlineLevel="0" width="11.2851564964804"/>
-    <col customWidth="true" max="11" min="11" outlineLevel="0" width="15.1406249709246"/>
-    <col customWidth="true" max="12" min="12" outlineLevel="0" width="11.710937625553"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="true" ht="15" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="3" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
-  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperHeight="297mm" paperSize="9" paperWidth="210mm" scale="100"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Outputs/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs/BOM/Bill of Materials-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\RCL\POWER-CONNECTOR\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C711BA6E-0A5B-4D7C-BDEF-CC057FCC860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CFFE11-52A6-4370-9141-233F97E43907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{22140B6C-DBC6-4661-9482-37B5D2A42DC2}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{E45705C0-831F-4682-8125-3562389EA2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Designator</t>
   </si>
@@ -75,6 +75,27 @@
     <t>Name</t>
   </si>
   <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>LTST-C194KRKT</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>0603 Lite-On</t>
+  </si>
+  <si>
+    <t>Red 620nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>0603-LED-RED</t>
+  </si>
+  <si>
     <t>CAN1, CAN2, CAN3, CAN4</t>
   </si>
   <si>
@@ -93,9 +114,6 @@
     <t>Connector Header Surface Mount, Right Angle 4 position 0.049 _1.25mm_</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
     <t>http://www.farnell.com/datasheets/2082975.pdf</t>
   </si>
   <si>
@@ -130,6 +148,60 @@
   </si>
   <si>
     <t>SMT</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Yageo or NXP</t>
+  </si>
+  <si>
+    <t>RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>330 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_10.pdf</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/9000079628</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>RC0603FR-0724KL</t>
+  </si>
+  <si>
+    <t>24k</t>
+  </si>
+  <si>
+    <t>24 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product0/9000079736</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>LTST-C194KFKT</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>Orange 605nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>0603-LED-ORANGE</t>
   </si>
 </sst>
 </file>
@@ -506,8 +578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160786AD-265E-4713-84F6-7979EB5B865F}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8C3F2E-C102-4394-BC77-10277AF0D7A8}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,99 +642,233 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>